--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/DISTRICT_OF_COLUMBIA_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/DISTRICT_OF_COLUMBIA_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D181"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C8">
@@ -506,7 +506,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C10">
@@ -584,7 +584,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C16">
@@ -755,7 +755,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -947,12 +947,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C42">
@@ -978,7 +978,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C44">
@@ -1056,7 +1056,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C50">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C52">
@@ -1126,7 +1126,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C55">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C57">
@@ -1209,7 +1209,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C61">
@@ -1222,7 +1222,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C62">
@@ -1261,7 +1261,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C65">
@@ -1313,7 +1313,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C69">
@@ -1370,7 +1370,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C73">
@@ -1440,7 +1440,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C78">
@@ -1707,7 +1707,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C97">
@@ -1751,7 +1751,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C100">
@@ -1764,7 +1764,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C101">
@@ -1790,7 +1790,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C103">
@@ -1907,7 +1907,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C112">
@@ -1951,7 +1951,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C115">
@@ -1977,7 +1977,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C117">
@@ -2133,7 +2133,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C129">
@@ -2185,7 +2185,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C133">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C141">
@@ -2563,7 +2563,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C159">
@@ -2589,7 +2589,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C161">
@@ -2789,41 +2789,6 @@
       </c>
       <c r="D175">
         <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/DISTRICT_OF_COLUMBIA_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/DISTRICT_OF_COLUMBIA_2018.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -491,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Bella Vista</t>
@@ -504,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Comitán De Domínguez</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Frontera Hidalgo</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Salto De Agua</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Socoltenango</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Total</t>
@@ -709,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Total</t>
@@ -740,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Total</t>
@@ -771,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -784,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -797,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -810,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -823,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -836,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -849,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>La Magdalena Contreras</t>
@@ -862,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -875,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -888,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -901,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Total</t>
@@ -932,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Total</t>
@@ -963,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Chimalhuacán</t>
@@ -976,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -989,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Ixtlahuaca</t>
@@ -1002,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -1015,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Otumba</t>
@@ -1028,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -1041,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Teoloyucan</t>
@@ -1054,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1067,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1098,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -1111,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1124,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -1137,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1168,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -1181,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -1194,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -1207,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -1220,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -1233,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Copala</t>
@@ -1246,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -1259,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -1272,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -1285,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -1298,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Tlalchapa</t>
@@ -1311,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -1324,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1355,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -1368,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -1381,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Pisaflores</t>
@@ -1394,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>San Salvador</t>
@@ -1407,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1438,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -1451,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -1464,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1477,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1508,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -1521,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -1534,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Maravatío</t>
@@ -1547,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1560,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -1573,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -1586,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1617,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Jojutla</t>
@@ -1630,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -1643,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1674,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1705,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>San Nicolás De Los Garza</t>
@@ -1718,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1749,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Ejutla De Crespo</t>
@@ -1762,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Juchitán De Zaragoza</t>
@@ -1775,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Magdalena Apasco</t>
@@ -1788,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Ocotlán De Morelos</t>
@@ -1801,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>San Juan Bautista Jayacatlán</t>
@@ -1814,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>San Lucas Quiaviní</t>
@@ -1827,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>San Pablo Huitzo</t>
@@ -1840,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Santa Ana Tlapacoyan</t>
@@ -1853,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Santa Cruz Zenzontepec</t>
@@ -1866,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Santa María Yolotepec</t>
@@ -1879,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -1892,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Santiago Yosondúa</t>
@@ -1905,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Teotitlán Del Valle</t>
@@ -1918,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1949,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Cuayuca De Andrade</t>
@@ -1962,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Huauchinango</t>
@@ -1975,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Ixcamilpa De Guerrero</t>
@@ -1988,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Jopala</t>
@@ -2001,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Molcaxac</t>
@@ -2014,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Nicolás Bravo</t>
@@ -2027,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Ocoyucan</t>
@@ -2040,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -2053,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Quimixtlán</t>
@@ -2066,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>San José Chiapa</t>
@@ -2079,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Santiago Miahuatlán</t>
@@ -2092,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Tecamachalco</t>
@@ -2105,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -2118,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -2131,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Tepanco De López</t>
@@ -2144,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -2157,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -2170,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Tianguismanalco</t>
@@ -2183,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -2196,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Tlatlauquitepec</t>
@@ -2209,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Tochimilco</t>
@@ -2222,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Xicotepec</t>
@@ -2235,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Xochitlán Todos Santos</t>
@@ -2248,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -2261,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Zautla</t>
@@ -2274,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2305,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2336,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2367,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2398,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Sinaloa</t>
@@ -2411,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2442,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2473,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2504,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Chiautempan</t>
@@ -2517,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -2530,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2561,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Chinampa De Gorostiza</t>
@@ -2574,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -2587,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Hueyapan De Ocampo</t>
@@ -2600,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Jáltipan</t>
@@ -2613,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Rafael Delgado</t>
@@ -2626,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -2639,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -2652,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Uxpanapa</t>
@@ -2665,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Yanga</t>
@@ -2678,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Zongolica</t>
@@ -2691,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2722,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2753,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -2766,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Total</t>
